--- a/medicine/Psychotrope/Loi_sur_le_tabac_(Allemagne)/Loi_sur_le_tabac_(Allemagne).xlsx
+++ b/medicine/Psychotrope/Loi_sur_le_tabac_(Allemagne)/Loi_sur_le_tabac_(Allemagne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi provisoire sur le tabac (Vorläufiges Tabakgesetz, VTabakG) est une loi fédérale allemande faisant partie du droit pénal dérivé.
 Elle était originellement appelée la loi sur les denrées alimentaires et de première nécessité (Lebensmittel- und Bedarfsgegenständegesetz, LBMG), mais elle a été presque entièrement codifiée au Code des denrées alimentaires, de première nécessité et d’alimentation animale (Lebensmittel-, Bedarfsgegenstände- und Futtermittelgesetzbuch, LFGB) par la loi de réorganisation du droit de l’alimentation humaine et animale (Gesetz zur Neuordnung des Lebensmittel- und des Futtermittelrechts) du 7 septembre 2005, et a pris son titre actuel le 1er septembre 2005.
